--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_4_urine_filtration_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_4_urine_filtration_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFGH-WHO\Forms\BENIN\SCH STH\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4406DB-F697-4397-8EB0-A5F7E1BB0A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,16 +18,6 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -264,16 +255,16 @@
     <t>Veuillez entrer le code du participant. Exemple 999-99</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V1</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_4_urine_filtration_v1</t>
+    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V2</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_4_urine_filtration_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -872,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1337,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1541,11 +1532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_4_urine_filtration_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_4_urine_filtration_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4406DB-F697-4397-8EB0-A5F7E1BB0A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E2B1B-204E-4F50-BDE4-39F5527FDA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -141,9 +141,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{2}$')</t>
-  </si>
-  <si>
     <t>Code d'identification du répondant (Veuillez Saisir le code du participant tel qu'il a été généré dans le formulaire 2)</t>
   </si>
   <si>
@@ -252,20 +249,68 @@
     <t>Exemple: 999-99. Il s'agit du code de l'école suivi d'un tiret puis du numéro d'ordre du participant sur deux chiffres.</t>
   </si>
   <si>
-    <t>Veuillez entrer le code du participant. Exemple 999-99</t>
-  </si>
-  <si>
-    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V2</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_4_urine_filtration_v2</t>
+    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V3.2</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_4_urine_filtration_v3_2</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>bj_u2</t>
+  </si>
+  <si>
+    <t>join(' ', ${u_espen_code_id})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${u_espen_code_id}))</t>
+  </si>
+  <si>
+    <t>Cet identifiant est déjà utilisé</t>
+  </si>
+  <si>
+    <t>select_one yesNo</t>
+  </si>
+  <si>
+    <t>Voulez-vous ajouter un autre enregistrement</t>
+  </si>
+  <si>
+    <t>u_add_record</t>
+  </si>
+  <si>
+    <t>${u_add_record} = 'Oui'</t>
+  </si>
+  <si>
+    <t>Résultats Urine</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${u_espen_code_id}))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +403,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -448,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,6 +633,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,13 +931,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -935,17 +1002,17 @@
         <v>12</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>56</v>
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
@@ -963,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="36"/>
@@ -985,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="36"/>
@@ -998,7 +1065,7 @@
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1">
@@ -1009,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="36"/>
@@ -1022,7 +1089,7 @@
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
@@ -1030,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="36"/>
@@ -1046,280 +1113,413 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" ht="47.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="47.25">
       <c r="A7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" s="23" customFormat="1">
+      <c r="A8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1">
+      <c r="A9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="78.75">
+      <c r="A10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" s="56" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" s="25" customFormat="1" ht="47.25">
+      <c r="A12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" s="25" customFormat="1" ht="47.25">
+      <c r="A13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36" t="s">
+      <c r="C13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" ht="47.25">
-      <c r="A8" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="31.5">
-      <c r="A9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="31.5">
-      <c r="A10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" s="24" customFormat="1">
-      <c r="A11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" s="24" customFormat="1" ht="31.5">
-      <c r="A12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12" s="24" customFormat="1">
-      <c r="A13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12" s="24" customFormat="1">
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A14" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="34"/>
       <c r="J14" s="34"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="1:12" s="24" customFormat="1">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A15" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="35"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" s="24" customFormat="1">
       <c r="A16" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="45"/>
       <c r="F16" s="34"/>
       <c r="G16" s="46"/>
-      <c r="H16" s="45"/>
+      <c r="H16" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="I16" s="45"/>
-      <c r="J16" s="34"/>
+      <c r="J16" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
     </row>
-    <row r="17" spans="1:12" s="24" customFormat="1">
+    <row r="17" spans="1:12" s="24" customFormat="1" ht="31.5">
       <c r="A17" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="35"/>
       <c r="E17" s="45"/>
       <c r="F17" s="34"/>
       <c r="G17" s="46"/>
-      <c r="H17" s="45"/>
+      <c r="H17" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="I17" s="45"/>
-      <c r="J17" s="34"/>
+      <c r="J17" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K17" s="45"/>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="24" customFormat="1">
       <c r="A18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="35"/>
       <c r="E18" s="45"/>
       <c r="F18" s="34"/>
       <c r="G18" s="46"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="34"/>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+    <row r="19" spans="1:12" s="24" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" s="24" customFormat="1">
+      <c r="A20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:12" s="24" customFormat="1">
+      <c r="A21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:12" s="24" customFormat="1">
+      <c r="A22" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12" s="24" customFormat="1">
+      <c r="A23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" s="24" customFormat="1">
+      <c r="A24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1355,28 +1555,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -1385,13 +1585,13 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -1535,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1558,10 +1758,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>

--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_4_urine_filtration_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_4_urine_filtration_v1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFGH-WHO\BENIN\SCH STH Janv 2024\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E2B1B-204E-4F50-BDE4-39F5527FDA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="3120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -201,9 +200,6 @@
     <t>u_sh_egp_10ml_sup</t>
   </si>
   <si>
-    <t>Nombre d'œufs de Schistosoma mansoni - Superviseur</t>
-  </si>
-  <si>
     <t>Nombre d’œufs de Schistosoma haematobium par 10 ml - Superviseur</t>
   </si>
   <si>
@@ -225,36 +221,15 @@
     <t>select_one confirmation</t>
   </si>
   <si>
-    <t>u_sch_man_sup</t>
-  </si>
-  <si>
     <t>u_espen_code_id</t>
   </si>
   <si>
     <t>u_urine_filtrer</t>
   </si>
   <si>
-    <t>u_sch_man_a</t>
-  </si>
-  <si>
-    <t>u_sch_man_b</t>
-  </si>
-  <si>
-    <t>Nombre d'œufs de Schistosoma mansoni - Lame A</t>
-  </si>
-  <si>
-    <t>Nombre d'œufs de Schistosoma mansoni - Lame B</t>
-  </si>
-  <si>
     <t>Exemple: 999-99. Il s'agit du code de l'école suivi d'un tiret puis du numéro d'ordre du participant sur deux chiffres.</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V3.2</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_4_urine_filtration_v3_2</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -304,12 +279,18 @@
   </si>
   <si>
     <t>not(selected(${C3}, ${u_espen_code_id}))</t>
+  </si>
+  <si>
+    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V4</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_4_urine_filtration_v4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -930,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -947,7 +928,7 @@
     <col min="3" max="3" width="47.5" style="26" customWidth="1"/>
     <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -1118,10 +1099,10 @@
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1" ht="47.25">
       <c r="A7" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -1130,7 +1111,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -1138,13 +1119,13 @@
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1">
       <c r="A8" s="36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>91</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="36"/>
@@ -1158,10 +1139,10 @@
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
@@ -1170,7 +1151,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -1178,10 +1159,10 @@
     </row>
     <row r="10" spans="1:12" s="23" customFormat="1" ht="78.75">
       <c r="A10" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
@@ -1190,7 +1171,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -1198,13 +1179,13 @@
     </row>
     <row r="11" spans="1:12" s="56" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="8"/>
@@ -1218,23 +1199,23 @@
         <v>18</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="44" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36" t="s">
@@ -1245,20 +1226,20 @@
     </row>
     <row r="13" spans="1:12" s="25" customFormat="1" ht="47.25">
       <c r="A13" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="50"/>
       <c r="F13" s="52"/>
       <c r="G13" s="51"/>
       <c r="H13" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I13" s="50"/>
       <c r="J13" s="50" t="s">
@@ -1286,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1301,7 +1282,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="34"/>
@@ -1312,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -1334,7 +1315,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="46"/>
       <c r="H16" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="34" t="s">
@@ -1351,14 +1332,14 @@
         <v>58</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="45"/>
       <c r="F17" s="34"/>
       <c r="G17" s="46"/>
       <c r="H17" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="34" t="s">
@@ -1369,20 +1350,20 @@
     </row>
     <row r="18" spans="1:12" s="24" customFormat="1">
       <c r="A18" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="45"/>
       <c r="F18" s="34"/>
       <c r="G18" s="46"/>
       <c r="H18" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="34"/>
@@ -1391,21 +1372,15 @@
     </row>
     <row r="19" spans="1:12" s="24" customFormat="1">
       <c r="A19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>73</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="45"/>
       <c r="F19" s="34"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="H19" s="57"/>
       <c r="I19" s="45"/>
       <c r="J19" s="34"/>
       <c r="K19" s="45"/>
@@ -1413,21 +1388,17 @@
     </row>
     <row r="20" spans="1:12" s="24" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="45"/>
       <c r="F20" s="34"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="H20" s="45"/>
       <c r="I20" s="45"/>
       <c r="J20" s="34"/>
       <c r="K20" s="45"/>
@@ -1435,91 +1406,35 @@
     </row>
     <row r="21" spans="1:12" s="24" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="45"/>
       <c r="F21" s="34"/>
       <c r="G21" s="46"/>
-      <c r="H21" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="34"/>
       <c r="K21" s="45"/>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:12" s="24" customFormat="1">
-      <c r="A22" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-    </row>
-    <row r="23" spans="1:12" s="24" customFormat="1">
-      <c r="A23" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" s="24" customFormat="1">
-      <c r="A24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+    <row r="22" spans="1:12">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,13 +1485,13 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -1585,13 +1500,13 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -1732,10 +1647,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1758,10 +1673,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
